--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value854.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value854.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9578172212491398</v>
+        <v>0.6820405125617981</v>
       </c>
       <c r="B1">
-        <v>2.020421616271237</v>
+        <v>1.414020180702209</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.680445671081543</v>
       </c>
       <c r="D1">
-        <v>1.937538673582915</v>
+        <v>3.097216606140137</v>
       </c>
       <c r="E1">
-        <v>1.29317791783739</v>
+        <v>1.73179829120636</v>
       </c>
     </row>
   </sheetData>
